--- a/data/wt_summary.xlsx
+++ b/data/wt_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>protein_dataset</t>
@@ -449,9 +454,14 @@
           <t>type</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>seq</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,9 +477,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MLPGLALLLLAAWTARALEVPTDGNAGLLAEPQIAMFCGRLNMHMNVQNGKWDSDPSGTKTCIDTKEGILQYCQEVYPELQITNVVEANQPVTIQNWCKRGRKQCKTHPHFVIPYRCLVGEFVSDALLVPDKCKFLHQERMDVCETHLHWHTVAKETCSEKSTNLHDYGMLLPCGIDKFRGVEFVCCPLAEESDNVDSADAEEDDSDVWWGGADTDYADGSEDKVVEVAEEEEVAEVEEEEADDDEDDEDGDEVEEEAEEPYEEATERTTSIATTTTTTTESVEEVVREVCSEQAETGPCRAMISRWYFDVTEGKCAPFFYGGCGGNRNNFDTEEYCMAVCGSAMSQSLLKTTQEPLARDPVKLPTTAASTPDAVDKYLETPGDENEHAHFQKAKERLEAKHRERMSQVMREWEEAERQAKNLPKADKKAVIQHFQEKVESLEQEAANERQQLVETHMARVEAMLNDRRRLALENYITALQAVPPRPRHVFNMLKKYVRAEQKDRQHTLKHFEHVRMVDPKKAAQIRSQVMTHLRVIYERMNQSLSLLYNVPAVAEEIQDEVDELLQKEQNYSDDVLANMISEPRISYGNDALMPSLTETKTTVELLPVNGEFSLDDLQPWHSFGADSVPANTENEVEPVDARPAADRGLTTRPGSGLTNIKTEEISEVKMDAEFRHDSGYEVHHQKLVFFAEDVGSNKGAIIGLMVGGVVIATVIVITLVMLKKKQYTSIHHGVVEVDAAVTPEERHLSKMQQNGYENPTYKFFEQMQN</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -485,9 +500,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>YFQGQLNAMAHQIQEMFPQVPYHLVLQDLQLTRSVEITTDNILEGRI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -503,9 +523,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QEELVKAFKALLKEEKFSSQGEIVAALQEQGFDNINQSKVSRMLTKFGAVRTRNAKMEMVYCLPAELGV</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -521,9 +546,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MAKQPSDVSSECDREGRQLQPAERPPQLRPGAPTSLQTEPQGNPEGNHGGEGDSCPHGSPQGPLAPPASPGPFATRSPLFIFMRRSSLLSRSSSGYFSFDTDRSPAPMSCDKSTQTPSPPCQAFNHYLSAMASMRQAEPADMRPEIWIAQELRRIGDEFNAYYARRVFLNNYQAAEDHPRMVILRLLRYIVRLVWRMH</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -539,9 +569,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EVPFKVVAQFPYKSDYEDDLNFEKDQEIIVTSVEDAEWYFGEYQDSNGDVIEGIFPKSFVAVQG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -557,9 +592,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELSWTAEAEKMLGKVPFFVRKKVRKNTDNYAREIGEPVVTADVFRKAKEHLG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -575,9 +615,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GLTEEQKQEIREAFDLFDTDGSGTIDAKELKVAMRALGFEPKKEEIKKMISEIDKDGSGTIDFEEFLTMMTA</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -593,9 +638,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VGDQVLEIVPSNEEQIKNLLQLEAQEHLQLDFWKSPTTPGETAHVRVPFVNVQAVKVFLESQGIAYSIMIED</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -611,9 +661,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AVESIEKKRIRKGRVEYLVKWRGWSPKYNTWEPEENILDPRLLIAFQNRE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -629,9 +684,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SSGGSSILDRAVIEHNLLSASKLYNNITFEELGALLEIPAAKAEKIASQMITEGRMNGFIDQIDGIVHFETR</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -647,9 +707,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GGHPVTTQMVETVQNLAPNLHPEQIRYSLENTGSVEETVERYLRGDEFSFPP</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -665,9 +730,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MTALTEGAKLFEKEIPYITELEGDVEGMKFIIKGEGTGDATTGTIKAKYICTTGDLPVPWATILSSLSYGVFCFAKYPRHIADFFKSTQPDGYSQDRIISFDNDGQYDVKAKVTYENGTLYNRVTVKGTGFKSNGNILGMRVLYHSPPHAVYILPDRKNGGMKIEYNKAFDVMGGGHQMARHAQFNKPLGAWEEDYPLYHHLTVWTSFGKDPDDDETDHLTIVEVIKAVDLETYR</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -683,9 +753,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TVKFKYKGEEKQVDISKIKKVWRVGKMISFTYDEGGGKTGRGAVSEKDAPKELLQ</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -701,9 +776,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TTYYDVLGVKPNATQEELKKAYRKLALKYHPDKNPNEGEKFKQISQAYEVLSDAKKRELYDKGGE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -719,9 +799,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WVPTKREEKYGVAFYNYDARGADELSLQIGDTVHILETYEGWYRGYTLRKKSKKGIFPASYIHLKE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -737,9 +822,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LADDRTLLMAGVSHDLRTPLTRIRLATEMMSEQDGYLAESINKDIEECNAIIEQFIDYLR</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -755,9 +845,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SFNTVDEWLEAIKMGQYKESFANAGFTSFDVVSQMMMEDILRVGVTLAGHQKKILNSIQVMRAQMN</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -773,9 +868,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MANVEKMSVAVTPQQAAVMREAVEAGEYATASEIVREAVRDWLAKRELRHDDIRRLRQLWDEGKASGRPEPVDFDALRKEARQKLTEVPPNGR</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -791,9 +891,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>QVNIAPGSLDKALNQYAAHSGFTLSVDASLTRGKQSNGLHGDYDVESGLQQLLDGSGLQVKPLGNNSWTLEP</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -809,9 +914,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VPQRAWTVEQLRSEQLPKKDIIKFLQEHGSDSFLAEHKLLGNIKNVAKTANKDHLVTAYNHLFETKRFK</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -827,9 +937,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VRQEELAAARAALHDLMTGKRVATVQKDGRRVEFTATSVSDLKKYIAELEVQTGM</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -845,9 +960,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NLYFQGLKYMVPGARVTRGLDWKWRDQDGSPQGEGTVTGELHNGWIDVTWDAGGSNSYRMGAEGKFDLKLAP</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -863,9 +983,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MLTKHGKNPVMELNEKRRGLKYELISETGGSHDKRFVMEVEVDGQKFQGAGSNKKVAKAYAALAALEKLFP</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -881,9 +1006,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>YNLQKLLAPYHKAKTLERQVYELEKLQEKLPEKYKAEYKKKLDQTRVELADQVKS</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -899,9 +1029,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LTDEELVTMSVRELNQHLRGLSKEEIIQLKQRRRTLKNRGY</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -917,9 +1052,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>VSVELPAPSSWKKLFYPNKVGSVKKTEVVFVAPTGEEISNRKQLEQYLKSHPGNPAIAEFDWTTSG</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -935,9 +1075,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NPELVQAVQHVVIGPSSLIVHFNEVIGRGHFGCVYHGTLLDNDGKKIHCAVKSLNRITDIGEVSQFLTEGIIMKDFSHPNVLSLLGICLRSEGSPLVVLPYMKHGDLRNFIRNETHNPTVKDLIGFGLQVAKGMKYLASKKFVHRDLAARNCMLDEKFTVKVADFGLARDMYDKEYYSVHNKTGAKLPVKWMALESLQTQKFTTKSDVWSFGVLLWELMTRGAPPYPDVNTFDITVYLLQGRRLLQPEYCPDPLYEVMLKCWHPKAEMRPSFSELVSRISAIFSTFI</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -953,9 +1098,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>KDPKFEAAYDFPGSGSSSELPLKKGDIVFISRDEPSGWSLAKLLDGSKEGWVPTAYMTPYK</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -971,9 +1121,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>HSHMSHTQVIELERKFSHQKYLSAPERAHLAKNLKLTETQVKIWFQNRRYKTKRKQLSSEL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -989,9 +1144,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>EAHAAIDTFTKYLDIDEDFATVLVEEGFSTLEELAYVPMKELLEIEGLDEPTVEALRERAKNALATIAQ</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1007,9 +1167,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DYEVGESVTVMDGPFATLPATISEVNAEQQKLKVLVSIFGRETPVELTFGQVSKI</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1025,9 +1190,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FDIYVVTADYLPLGAEQDAITLREGQYVEVLDAAHPLRWLVRTKPTKSSPSRQGWVSPAYLDRRL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1043,9 +1213,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NRRVIAMPSVRKWAREKGVDIRLVQGTGKNGRVLKEDIDAFLAG</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1061,9 +1236,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TLDMDAVLSDFVRSTGAEPGLARDLLEGKNWDLTAALSDYEQ</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1079,9 +1259,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AGLRHTFVVADATLPDCPLVYASEGFYAMTGYGPDEVLGHNARFLQGEGTDPKEVQKIRDAIKKGEACSVRLLNYRKDGTPFWNLLTVTPIKTPDGRVSKFVGVQVDVTSKTEGKALA</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1097,9 +1282,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>KLPPGWEKRMSRSSGRVYYFNHITNASQWERPSGNSSSG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1115,9 +1305,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>THFTSQQLQELEATFQRNHYPDMSTREEIAVWTNLTEARVRVWFKNRRAKWR</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1133,9 +1328,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>GIPATNLSRVAGLEKQLAIELKVKQGAENMIQTYSNGSTKDRKLLLTAQQMLQDSKTKIDIIRMQLRRALQ</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1151,9 +1351,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ALRDDEYDEWQDIIRDWRKEMTVQQFLDLKERALSGASDPDSQRYNAWLELRA</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1169,9 +1374,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TYTWNTKEEAKQAFKELLKEKRVPSNASWEQAMKMIINDPRYSALAKLSEKKQAFNAYKVQTE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1187,9 +1397,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AIERGSKVKILRKESYWYGDVGTVASIDKSGIIYPVIVRFNKVNYNGFSGSAGGLNTNNFAEHELEVV</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1205,9 +1420,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MPAMKIECRITGTLNGVEFELVGGGEGTPEQGRMTNKMKSTKGALTFSPYLLSHVMGYGFYHFGTYPSGYENPFLHAINNGGYTNTRIEKYEDGGVLHVSFSYRYEAGRVIGDFKVVGTGFPEDSVIFTDKIIRSNATVEHLHPMGDNVLVGSFARTFSLRDGGYYSFVVDSHMHFKSAIHPSILQNGGPMFAFRRVEELHSNTELGIVEYQHAFKTPIAFA</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1223,9 +1443,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MSKGEELFTGIVPVLIELDGDVHGHKFSVRGEGEGDADYGKLEIKFICTTGKLPVPWPTLVTTLSYGILCFARYPEHMKMNDFFKSAMPEGYIQERTIFFQDDGKYKTRGEVKFEGDTLVNRIELKGMDFKEDGNILGHKLEYNFNSHNVYIMPDKANNGLKVNFKIRHNIEGGGVQLADHYQTNVPLGDGPVLIPINHYLSCQTAISKDRNETRDHMVFLEFFSACGHTHGMDELYK</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1241,9 +1466,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>PWSAKENKAFERALAVYDKDTPDRWANVARAVEGRTPEEVKKHYEILVEDIKYI</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1259,9 +1489,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MTEYKLVVVGAGGVGKSALTIQLIQNHFVDEYDPTIEDSYRKQVVIDGETCLLDILDTAGQEEYSAMRDQYMRTGEGFLCVFAINNTKSFEDIHHYREQIKRVKDSEDVPMVLVGNKCDLPSRTVDTKQAQDLARSYGIPFIETSAKTRQGVDDAFYTLVREIRKHKEKMSKDGKKKKKKSKTKCVIM</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1277,9 +1512,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MTEYKLVVVGAGGVGKSALTIQLIQNHFVDEYDPTIEDSYRKQVVIDGETCLLDILDTAGQEEYSAMRDQYMRTGEGFLCVFAINNTKSFEDIHHYREQIKRVKDSEDVPMVLVGNKCDLPSRTVDTKQAQDLARSYGIPFIETSAKTRQGVDDAFYTLVREIRKHKEKMSKDGKKKKKKSKTKCVIM</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1295,9 +1535,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ETQAGIKEEIRRQEFLLNSLHRDLQGGIKDLSKEERLWEVQRILTALKRKLR</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1313,9 +1558,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>PTLFAAISHKVAENDMLLINADYQQLRDKKMTRAEFVRKLRVIVGDDLLRSTITTLQ</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1331,9 +1581,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>QRITLKDYAMRFGQTKTAKDLGVYQSAINKAIHAGRKIFLTINADGSVYAEEVKDGEVKPFPS</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1349,9 +1604,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SEYETMLTEIMSMGYERERVVAALRASYNNPHRAVEYLLTGIPG</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1367,9 +1627,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ATPYPGDKVIITEGAFEGFQAIFTEPDGEARSMLLLNLINKEIKHSVKNTEFRKL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1385,9 +1650,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>WIARINAAVRAYGLNYSTFINGLKKAGIELDRKILADMAVRDPQAFEQVVNKVKEALQV</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1403,9 +1673,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SISSRVKSKRIQLGLNQAELAQKVGTTQQSIEQLENGKTKRPRFLPELASALGVSVDWLLN</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1421,9 +1696,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MSTKKKPLTQEQLEDARRLKAIYEKKKNELGLSQESVADKMGMGQSGVGALFNGINALNAYNAALLAKILKVSVEEFSPSIAREIYEMYEAVSMQPSLRSEYEYPVFSHVQAGMFSPELRTFTKGDAERWVSTTKKASDSAFWLEVEGNSMTAPTGSKPSFPDGMLILVDPEQAVEPGDFCIARLGGDEFTFKKLIRDSGQVFLQPLNPQYPMIPCNESCSVVGKVIASQWPEETFG</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1439,9 +1719,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MSTKKKPLTQEQLEDARRLKAIYEKKKNELGLSQESVADKMGMGQSGVGALFNGINALNAYNAALLAKILKVSVEEFSPSIAREIYEMYEAVSMQPSLRSEYEYPVFSHVQAGMFSPELRTFTKGDAERWVSTTKKASDSAFWLEVEGNSMTAPTGSKPSFPDGMLILVDPEQAVEPGDFCIARLGGDEFTFKKLIRDSGQVFLQPLNPQYPMIPCNESCSVVGKVIASQWPEETFG</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1457,9 +1742,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SPEVQIAILTEQINNLNEHLRVHKKDHHSRRGLLKMVGKRRRLLAYLRNKDVARYREIVEKLG</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1475,9 +1765,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>PTVDDILEQVGESGWFQKQAFLILCLLSAAFAPICVGIVFLGFTPDHHCQSPGVAELSQRCGWSPAEELNYTVPGLGPAGEAFLGQCRRYEVDWNQSALSCVDPLASLATNRSHLPLGPCQDGWVYDTPGSSIVTEFNLVCADSWKLDLFQSCLNAGFLFGSLGVGYFADRFGRKLCLLGTVLVNAVSGVLMAFSPNYMSMLLFRLLQGLVSKGNWMAGYTLITEFVGSGSRRTVAIMYQMAFTVGLVALTGLAYALPHWRWLQLAVSLPTFLFLLYYWCVPESPRWLLSQKRNTEAIKIMDHIAQKNGKLPPADLKMLSLEEDVTEKLSPSFADLFRTPRLRKRTFILMYLWFTDSVLYQGLILHMGATSGNLYLDFLYSALVEIPGAFIALITIDRVGRIYPMAMSNLLAGAACLVMIFISPDLHWLNIIIMCVGRMGITIAIQMICLVNAELYPTFVRNLGVMVCSSLCDIGGIITPFIVFRLREVWQALPLILFAVLGLLAAGVTLLLPETKGVALPETMKDAENLGRKAKPKENTIYLKVQTSEPSGT</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1486,16 +1781,21 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>wt</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PTVDDILEQVGESGWFQKQAFLILCLLSAAFAPICVGIVFLGFTPDHHCQSPGVAELSQRCGWSPAEELNYTVPGLGPAGEAFLGQCRRYEVDWNQSALSCVDPLASLATNRSHLPLGPCQDGWVYDTPGSSIVTEFNLVCADSWKLDLFQSCLNAGFLFGSLGVGYFADRFGRKLCLLGTVLVNAVSGVLMAFSPNYMSMLLFRLLQGLVSKGNWMAGYTLITEFVGSGSRRTVAIMYQMAFTVGLVALTGLAYALPHWRWLQLAVSLPTFLFLLYYWCVPESPRWLLSQKRNTEAIKIMDHIAQKNGKLPPADLKMLSLEEDVTEKLSPSFADLFRTPRLRKRTFILMYLWFTDSVLYQGLILHMGATSGNLYLDFLYSALVEIPGAFIALITIDRVGRIYPMAMSNLLAGAACLVMIFISPDLHWLNIIIMCVGRMGITIAIQMICLVNAELYPTFVRNLGVMVCSSLCDIGGIITPFIVFRLREVWQALPLILFAVLGLLAAGVTLLLPETKGVALPETMKDAENLGRKAKPKENTIYLKVQTSEPSGT</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1511,9 +1811,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>GEDLPLPPGWSVDWTMRGRKYYIDHNTNTTHWSHPLESGPSSG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1529,9 +1834,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>VRHDERVKSANDAISKLNEKDSIENRRLAQREVNKAPMDVKEHLQKQLDALVAQKD</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1547,9 +1857,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>QNEKLANELKSLLDELNVNELATGSLNTYYKRTIKISGQKAMYALKSKDFKKMSEAKYQLQKIYNEIDEA</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -1565,9 +1880,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MRKLSDELLIESYFKATEMNLNRDFIELIENEIKRRSLGHIISV</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -1583,9 +1903,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>RPMNAFMVWARIHRPALAKANPAANNAEISVQLGLEWNKLSEEQKKPYYDEAQKIKE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -1601,9 +1926,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>KFNKELSVAGREIVTLPNLNDPQKKAFIFSLWDDPSQSANLLAEAKKLNDAQAPK</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -1619,9 +1949,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MTFKLIINGKTLKGETTTEAVDAATAEKVFKQYFNDNGIDGEWTYDDATKTFTITE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -1637,9 +1972,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>RQGFVPAAYVKKLDSGTGKELVLALYDYQEKSPREVTMKKGDILTLLNSTNKDWWKVEVN</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -1655,9 +1995,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>RLIESLSQMLSMGFSDEGGWLTRLLQTKNYDIGAALDTIQ</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -1673,9 +2018,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>AVAESVIGKRVGDDGKTIEYLVKWTDMSDATWEPQDNVDSTLVLLYQQ</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -1691,9 +2041,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>GIDPFTGEAIAKFNFNGDTQVEMSFRKGERITLLRQVDENWYEGRIPGTSRQGIFPITYVDVIKRPL</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -1709,9 +2064,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MGSNKSKPKDASQRRRSLEPAENVHGAGGGAFPASQTPSKPASADGHRGPSAAFAPAAAEPKLFGGFNSSDTVTSPQRAGPLAGGVTTFVALYDYESRTETDLSFKKGERLQIVNNTEGDWWLAHSLSTGQTGYIPSNYVAPSDSIQAEEWYFGKITRRESERLLLNAENPRGTFLVRESETTKGAYCLSVSDFDNAKGLNVKHYKIRKLDSGGFYITSRTQFNSLQQLVAYYSKHADGLCHRLTTVCPTSKPQTQGLAKDAWEIPRESLRLEVKLGQGCFGEVWMGTWNGTTRVAIKTLKPGTMSPEAFLQEAQVMKKLRHEKLVQLYAVVSEEPIYIVTEYMSKGSLLDFLKGETGKYLRLPQLVDMAAQIASGMAYVERMNYVHRDLRAANILVGENLVCKVADFGLARLIEDNEYTARQGAKFPIKWTAPEAALYGRFTIKSDVWSFGILLTELTTKGRVPYPGMVNREVLDQVERGYRMPCPPECPESLHDLMCQCWRKEPEERPTFEYLQAFLEDYFTSTEPQYQPGENL</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -1720,16 +2080,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>wt</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MDVYMKGLSKAKEGVVAAAEKTKQGVAEAAGKTKEGVLFVGSKTKEGVVHGVATVAEKTKEQVTNVGGAVVTGVTAVAQKTVEGAGSIAAATGYVKKDQLGKNEEGAPQEGILEDMPVDPDNEAFEMPSEEGFQDFEPEA</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -1745,9 +2110,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>GATAVSEWTEYKTADGKTYYYNNRTLESTWEKPQELK</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -1763,9 +2133,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SADYSSLTVVQLKDLLTKRNLSVGGLKNEWVQRLIKDDEES</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -1781,9 +2156,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>FSITQFVRNLGLEHLMDIFEREQITLRVLVEMGHKELKEIGINAYGHREKLIKGVERLI</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -1799,9 +2179,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MDGTRTSLDIEEYSDTEVQKNQVLTLEEWQDKWVNGKTAFHQEQGHQLLKKHLDTFLKGKSGLRVFFPLCGKAVEMKWFADRGHSVVGVEISELGIQEFFTEQNLSYSEEPITEIPGTKVFKSSSGNISLYCCSIFDLPRTNIGKFDMIWDRGALVAINPGDRKCYADTMFSLLGKKFQYLLCVLSYDPTKHPGPPFYVPHAEIERLFGKICNIRCLEKVDAFEERHKSWGIDCLFEKLYLLTEK</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -1817,9 +2202,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>DAPDEFRDPLMDTLMTDPVRLPSGTIMDRSIILRHLLNSPTDPFNRQTLTESMLEPVPELKEQIQAWMR</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -1835,9 +2225,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>HRQALGERLYPRVQAMQPAFASKITGMLLELSPAQLLLLLASEDSLRARVDEAMELII</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -1853,9 +2248,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ITGDVSAANKDAIRKQMDAAASKGDVETYRKLKAKLKGIR</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -1871,9 +2271,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>KLETFPLDVLVNTAAEDLPRGVDPSRKENHLSDEDFKAVFGMTRSAFANLPLWKQQNLKKEKGLF</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -1889,9 +2294,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SLSVDNKKFWATVESSEHSFEVPIYAETLDEALELAEWQYVPAGFEVTRVRPCVAP</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -1907,9 +2317,14 @@
           <t>wt</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>PREAYIVTIEKGKPGQTVTWYQLRADHPKPDSLISEHPTAQEAMDAKKRYED</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -1923,6 +2338,11 @@
       <c r="D83" t="inlineStr">
         <is>
           <t>wt</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MISNAKIARINELAAKAKAGVITEEEKAEQQKLRQEYLK</t>
         </is>
       </c>
     </row>
